--- a/strings_input.xlsx
+++ b/strings_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,14 +271,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,20 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -313,115 +413,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,73 +435,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,109 +585,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,6 +651,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -688,6 +690,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -708,32 +721,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,148 +753,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,8 +1241,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1399,7 +1386,9 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" ht="15.6" spans="1:5">
       <c r="A9" s="3" t="s">
@@ -1568,7 +1557,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
